--- a/static/sample-sheet-grubs.xlsx
+++ b/static/sample-sheet-grubs.xlsx
@@ -35,73 +35,73 @@
     <t>MEAL TYPE</t>
   </si>
   <si>
-    <t>#Bits email id(Only the Initials,Don't use pilani.bits-pilani.ac.in )</t>
-  </si>
-  <si>
-    <t># Student Bits id</t>
-  </si>
-  <si>
-    <t>#Full Name</t>
-  </si>
-  <si>
-    <t># Bhawan Room no.</t>
-  </si>
-  <si>
-    <t>#Bhawan</t>
-  </si>
-  <si>
-    <t>#Veg or veg</t>
-  </si>
-  <si>
-    <t>#Eg: f2010798  or F2010798</t>
-  </si>
-  <si>
-    <t>#Eg: 2010B3A2735P</t>
-  </si>
-  <si>
-    <t># Enter 0 for</t>
-  </si>
-  <si>
-    <t>#Only Abbreviations</t>
-  </si>
-  <si>
-    <t>#Non Veg or non veg</t>
-  </si>
-  <si>
-    <t>#Eg: h2010897 or H2010897</t>
-  </si>
-  <si>
-    <t>#Eg: 2010A1TS123P</t>
+    <t>Bits email id(Only the Initials,Don't use pilani.bits-pilani.ac.in )</t>
+  </si>
+  <si>
+    <t>Student Bits id</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Bhawan Room no.</t>
+  </si>
+  <si>
+    <t>Bhawan</t>
+  </si>
+  <si>
+    <t>Veg or veg</t>
+  </si>
+  <si>
+    <t>Eg: f2010798  or F2010798</t>
+  </si>
+  <si>
+    <t>Eg: 2010B3A2735P</t>
+  </si>
+  <si>
+    <t>Enter 0 for</t>
+  </si>
+  <si>
+    <t>Only Abbreviations</t>
+  </si>
+  <si>
+    <t>Non Veg or non veg</t>
+  </si>
+  <si>
+    <t>Eg: h2010897 or H2010897</t>
+  </si>
+  <si>
+    <t>Eg: 2010A1TS123P</t>
   </si>
   <si>
     <t>Dayscholars</t>
   </si>
   <si>
-    <t>#Eg: BD,RM,ML,MB,MLE</t>
-  </si>
-  <si>
-    <t>#Eg: p2010987 or P2010987</t>
-  </si>
-  <si>
-    <t>#Eg: 2006PH12559P</t>
-  </si>
-  <si>
-    <t>#Eg: VK,KR,SR,CVR,SK</t>
-  </si>
-  <si>
-    <t>#Eg: 2007PHXF424P</t>
-  </si>
-  <si>
-    <t>#Eg: GN,BG,AK,RP,VY</t>
-  </si>
-  <si>
-    <t>#DS: For Day Scholar</t>
+    <t>Eg: BD,RM,ML,MB,MLE</t>
+  </si>
+  <si>
+    <t>Eg: p2010987 or P2010987</t>
+  </si>
+  <si>
+    <t>Eg: 2006PH12559P</t>
+  </si>
+  <si>
+    <t>Eg: VK,KR,SR,CVR,SK</t>
+  </si>
+  <si>
+    <t>Eg: 2007PHXF424P</t>
+  </si>
+  <si>
+    <t>Eg: GN,BG,AK,RP,VY</t>
+  </si>
+  <si>
+    <t>DS: For Day Scholar</t>
   </si>
   <si>
     <t>Order of First Row should not be changed.</t>
   </si>
   <si>
-    <t>Green colour rows should be removed before uploading the sheet.</t>
+    <t>Above rows should be removed before uploading the sheet.</t>
   </si>
   <si>
     <t>All the fields should be valid.</t>
@@ -144,24 +144,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF66"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,15 +191,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,66 +212,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF66"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -295,37 +223,37 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/static/sample-sheet-grubs.xlsx
+++ b/static/sample-sheet-grubs.xlsx
@@ -5,49 +5,61 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>BITS ID</t>
-  </si>
-  <si>
-    <t>MEAL TYPE</t>
-  </si>
-  <si>
-    <t>Student Bits id</t>
-  </si>
-  <si>
-    <t>Veg or veg</t>
-  </si>
-  <si>
-    <t>Eg: 2010B3A2735P</t>
-  </si>
-  <si>
-    <t>Non Veg or non veg</t>
-  </si>
-  <si>
-    <t>Eg: 2010A1TS123P</t>
-  </si>
-  <si>
-    <t>Eg: 2006PH12559P</t>
-  </si>
-  <si>
-    <t>Eg: 2007PHXF424P</t>
-  </si>
-  <si>
-    <t>Order of First Row should not be changed.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">BITS ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEAL TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Bits id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veg or veg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg: 2010B3A20735P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Veg or non veg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg: 2010A1TS0123P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg: 2006PH120559P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg: 2007PHXF0424P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order of First Row should not be changed.</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Above rows (except 1</t>
     </r>
     <r>
@@ -73,10 +85,13 @@
     </r>
   </si>
   <si>
-    <t>All the fields should be valid.</t>
-  </si>
-  <si>
-    <t>Nothing Else should be written in any other column</t>
+    <t xml:space="preserve">All the fields should be valid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing Else should be written in any other column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t forget to add 0 before ID for 2016 or earler batch</t>
   </si>
 </sst>
 </file>
@@ -84,29 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,17 +109,26 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -182,23 +186,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,17 +223,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,6 +309,11 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
